--- a/biology/Zoologie/Bondrée_des_Célèbes/Bondrée_des_Célèbes.xlsx
+++ b/biology/Zoologie/Bondrée_des_Célèbes/Bondrée_des_Célèbes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e_des_C%C3%A9l%C3%A8bes</t>
+          <t>Bondrée_des_Célèbes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pernis celebensis
 La Bondrée des Célèbes (Pernis celebensis) est une espèce d'oiseau de la famille des Accipitridae, de la tribu des Pernini.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e_des_C%C3%A9l%C3%A8bes</t>
+          <t>Bondrée_des_Célèbes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau vit aux Célèbes, sur les îles de Sulawesi, de Muna, de Butung et de Banggai[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau vit aux Célèbes, sur les îles de Sulawesi, de Muna, de Butung et de Banggai. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e_des_C%C3%A9l%C3%A8bes</t>
+          <t>Bondrée_des_Célèbes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bondrée des Célèbes vit dans les forêts, jusqu'à 1800 m. L'adulte imite par son plumage l'aigle des Célèbes (Spizaetus lanceolatus), un mécanisme lui permettant de décourager des prédateurs et de se protéger[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bondrée des Célèbes vit dans les forêts, jusqu'à 1800 m. L'adulte imite par son plumage l'aigle des Célèbes (Spizaetus lanceolatus), un mécanisme lui permettant de décourager des prédateurs et de se protéger. 
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e_des_C%C3%A9l%C3%A8bes</t>
+          <t>Bondrée_des_Célèbes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une ancienne sous-espèce est désormais considérée comme une espèce à part entière, la Bondrée de Steere (Pernis steerei  W.L. Sclater 1919).
 </t>
